--- a/biology/Mycologie/Marius_Chadefaud/Marius_Chadefaud.xlsx
+++ b/biology/Mycologie/Marius_Chadefaud/Marius_Chadefaud.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marius Chadefaud, né le 21 décembre 1900 à Jonzac, ville où il est mort le 11 mai 1984[1], est un botaniste et mycologue français, spécialiste de la systématique et de la morphologie des algues et des champignons, en particulier des Ascomycètes. Il a été Professeur à la Sorbonne.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marius Chadefaud, né le 21 décembre 1900 à Jonzac, ville où il est mort le 11 mai 1984, est un botaniste et mycologue français, spécialiste de la systématique et de la morphologie des algues et des champignons, en particulier des Ascomycètes. Il a été Professeur à la Sorbonne.
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marius Chadefaud a étudié à l’École normale d'instituteurs de La Rochelle, puis à l’École normale supérieure de Saint-Cloud[2].
-De 1923 à 1930, il est Professeur à l’École normale de La Roche-sur-Yon. Parallèlement, il obtient une licence ès Sciences naturelles à Rennes et en 1927, un Diplôme d’études supérieures, sur l’étude cytologique des algues, sous la direction de Pierre Augustin Dangeard[2].
-Puis  en 1928, il obtient l'agrégation de sciences naturelles[3], et devient en 1930 professeur au Lycée Turgot à Paris. À partir de 1930, parallèlement à l’enseignement, il est engagé dans la recherche scientifique au Muséum national d’histoire naturelle de Paris, dans le laboratoire de Cryptogamie[2] dont il deviendra directeur[4].
-En 1935, il soutient sa thèse où il conclut à l’existence d’une structure infra-visible du cytoplasme[2].
-En 1954, il devient Maître de conférences, puis Professeur jusqu’en 1971, à la Faculté des sciences de la Sorbonne[2]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marius Chadefaud a étudié à l’École normale d'instituteurs de La Rochelle, puis à l’École normale supérieure de Saint-Cloud.
+De 1923 à 1930, il est Professeur à l’École normale de La Roche-sur-Yon. Parallèlement, il obtient une licence ès Sciences naturelles à Rennes et en 1927, un Diplôme d’études supérieures, sur l’étude cytologique des algues, sous la direction de Pierre Augustin Dangeard.
+Puis  en 1928, il obtient l'agrégation de sciences naturelles, et devient en 1930 professeur au Lycée Turgot à Paris. À partir de 1930, parallèlement à l’enseignement, il est engagé dans la recherche scientifique au Muséum national d’histoire naturelle de Paris, dans le laboratoire de Cryptogamie dont il deviendra directeur.
+En 1935, il soutient sa thèse où il conclut à l’existence d’une structure infra-visible du cytoplasme.
+En 1954, il devient Maître de conférences, puis Professeur jusqu’en 1971, à la Faculté des sciences de la Sorbonne. 
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Travaux scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Au début de son activité de recherche, Chadefaud étudie la cytologie et la morphologie des thalles des algues et identifie les quatre principaux types structuraux de thalles. Il transfère sa classification morphologique à l’appareil végétatif des plantes  (cormus) et des champignons. En 1935, il entreprend des études cytologiques sur les ascides et les basides, et publie des articles avec les résultats d'études sur l'appareil apical ascique.
 En 1944, la première grande monographie de Chadefaud est publiée : Biologie des champignons. Le livre contient une description détaillée des cycles de vie et des organes reproducteurs de divers groupes taxinomiques de champignons, et une grande attention est accordée à la manière dont ils évoluent.
@@ -581,7 +597,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Biologie des Champignons, L'Avenir de la Science no.19, 1944</t>
         </is>
@@ -611,7 +629,9 @@
           <t>Prix et récompenses</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>1937 : Prix Montana
 1944 : Prix Demazier
@@ -644,7 +664,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les genres suivant lui ont été dédiés :
 Chadefaudia G. Feldmann, 1957 ;
